--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paraclimbing-my.sharepoint.com/personal/frederik_leys_paraclimbing_onmicrosoft_com/Documents/XERYON/CNC/programma 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PYHTON\xeryon_auto_cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{6A4E3872-5FFC-4F11-8D42-E02D78562219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B092E5-BE81-4FAD-9535-3CCD4575673B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A26DD3C-42E6-4EE9-AB25-3B1EBA86E2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88971BE5-9878-412D-826F-ECF5D92D1F8C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Parameter</t>
   </si>
@@ -54,12 +54,6 @@
     <t>-22</t>
   </si>
   <si>
-    <t>-4.5</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>LENGTH</t>
   </si>
   <si>
@@ -69,60 +63,9 @@
     <t>COLUMNS</t>
   </si>
   <si>
-    <t>EINDESLAG_X1</t>
-  </si>
-  <si>
-    <t>EINDESLAG_X2</t>
-  </si>
-  <si>
-    <t>EINDESLAG_X3</t>
-  </si>
-  <si>
-    <t>EINDESLAG_X4</t>
-  </si>
-  <si>
-    <t>EINDESLAG_X5</t>
-  </si>
-  <si>
-    <t>EINDESLAG_X6</t>
-  </si>
-  <si>
-    <t>EINDESLAG_X7</t>
-  </si>
-  <si>
-    <t>EINDESLAG_X8</t>
-  </si>
-  <si>
-    <t>USES_EINDESLAG_X7</t>
-  </si>
-  <si>
-    <t>USES_EINDESLAG_X8</t>
-  </si>
-  <si>
     <t>VACUUM_GROEF_X1</t>
   </si>
   <si>
-    <t>VACUUM_GROEF_X2</t>
-  </si>
-  <si>
-    <t>VACUUM_GROEF_X3</t>
-  </si>
-  <si>
-    <t>VACUUM_GROEF_X4</t>
-  </si>
-  <si>
-    <t>VACUUM_GROEF_X5</t>
-  </si>
-  <si>
-    <t>VACUUM_GROEF_X6</t>
-  </si>
-  <si>
-    <t>VACUUM_GROEF_X7</t>
-  </si>
-  <si>
-    <t>VACUUM_GROEF_X8</t>
-  </si>
-  <si>
     <t>SELECT_LABELS</t>
   </si>
   <si>
@@ -153,18 +96,6 @@
     <t>BLK_X</t>
   </si>
   <si>
-    <t>VACUUM_GROEF_X9</t>
-  </si>
-  <si>
-    <t>VACUUM_GROEF_X10</t>
-  </si>
-  <si>
-    <t>VACUUM_GROEF_X11</t>
-  </si>
-  <si>
-    <t>VACUUM_GROEF_X12</t>
-  </si>
-  <si>
     <t>twee keer -25 bij vacuum groef 80…</t>
   </si>
   <si>
@@ -189,18 +120,6 @@
     <t>-25.8</t>
   </si>
   <si>
-    <t>-9.5</t>
-  </si>
-  <si>
-    <t>-2.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
     <t>XLS-3-60</t>
   </si>
   <si>
@@ -222,34 +141,34 @@
     <t>labels_xls_3_120.H</t>
   </si>
   <si>
-    <t>USES_VACUUM_GROEF_X10</t>
-  </si>
-  <si>
-    <t>USES_VACUUM_GROEF_X6</t>
-  </si>
-  <si>
-    <t>USES_VACUUM_GROEF_X7</t>
-  </si>
-  <si>
-    <t>USES_VACUUM_GROEF_X8</t>
-  </si>
-  <si>
-    <t>USES_VACUUM_GROEF_X9</t>
-  </si>
-  <si>
-    <t>USES_VACUUM_GROEF_X11</t>
-  </si>
-  <si>
-    <t>USES_VACUUM_GROEF_X12</t>
-  </si>
-  <si>
-    <t>USES_VACUUM_GROEF_X5</t>
-  </si>
-  <si>
     <t>FOR_VACUUM_GROEF_X</t>
   </si>
   <si>
-    <t>[-15,-5,5,15]</t>
+    <t>[-5,5,15]</t>
+  </si>
+  <si>
+    <t>[-15,-5,5,15,25]</t>
+  </si>
+  <si>
+    <t>[-45,-35,-25,-15,-5,5,15,25,35,45,55]</t>
+  </si>
+  <si>
+    <t>[-25,-15,-5,5,15,25,35]</t>
+  </si>
+  <si>
+    <t>FOR_EINDESLAG_X</t>
+  </si>
+  <si>
+    <t>[-7,-4.5,-2,2,4.5,7]</t>
+  </si>
+  <si>
+    <t>[-17,-9.5,-7,-3,3,7,9.5,17]</t>
+  </si>
+  <si>
+    <t>[-12,-8,-2.5,2.5,8,12]</t>
+  </si>
+  <si>
+    <t>[-12,-7,-2.5,2.5,7,12]</t>
   </si>
 </sst>
 </file>
@@ -359,10 +278,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,16 +597,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B21A371-38FF-4A9E-9243-30B70F907474}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="27.26171875" customWidth="1"/>
-    <col min="2" max="5" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.9453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.15625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.05078125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -700,16 +618,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -721,18 +639,18 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>29</v>
@@ -749,7 +667,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>40</v>
@@ -767,7 +685,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7">
         <f>B4/10</f>
@@ -789,24 +707,24 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -823,7 +741,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>22</v>
@@ -840,7 +758,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -857,7 +775,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>22</v>
@@ -874,7 +792,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
@@ -883,15 +801,15 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>-20</v>
@@ -900,15 +818,15 @@
         <v>-20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>-15</v>
@@ -917,15 +835,15 @@
         <v>-15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>15</v>
@@ -934,473 +852,78 @@
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
-        <v>-7</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-17</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-12</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-25</v>
       </c>
       <c r="D16" s="1">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="E16" s="1">
-        <v>-7</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>-3</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1">
-        <v>12</v>
-      </c>
-      <c r="E20" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1">
-        <v>-15</v>
-      </c>
-      <c r="C26" s="1">
-        <v>-25</v>
-      </c>
-      <c r="D26" s="1">
-        <v>-25</v>
-      </c>
-      <c r="E26" s="1">
-        <v>-55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="1">
-        <v>-5</v>
-      </c>
-      <c r="C27" s="1">
-        <v>-15</v>
-      </c>
-      <c r="D27" s="1">
-        <v>-25</v>
-      </c>
-      <c r="E27" s="1">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="1">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1">
-        <v>-5</v>
-      </c>
-      <c r="D28" s="1">
-        <v>-15</v>
-      </c>
-      <c r="E28" s="1">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="1">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5</v>
-      </c>
-      <c r="D29" s="1">
-        <v>-5</v>
-      </c>
-      <c r="E29" s="1">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1">
-        <v>15</v>
-      </c>
-      <c r="D31" s="1">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="1">
-        <v>25</v>
-      </c>
-      <c r="D33" s="1">
-        <v>15</v>
-      </c>
-      <c r="E33" s="1">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="1">
-        <v>25</v>
-      </c>
-      <c r="E35" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="1">
-        <v>35</v>
-      </c>
-      <c r="E37" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +949,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
